--- a/pred_ohlcv/54_21/2020-01-15 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ICX ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>42525.74885730742</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>47216.92265730742</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>12806.10795730742</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>60331.96395730742</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>49906.23925730742</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>59922.63345730743</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>59932.63345730743</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>56601.09265730742</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>61840.31685730742</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>59560.48415730742</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>59886.23615730742</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>60355.53465730742</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>58355.53465730742</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1349.726157307423</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1339.726157307423</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6719.630957307423</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>24778.39885730742</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>24778.39885730742</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>59593.85225730742</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>105429.8496573074</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>110434.8496573074</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>170147.2239573074</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>183172.9109573074</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>166823.5235573074</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>167567.8785573074</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>162122.8271573074</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>161913.5280573074</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>161913.5280573074</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>140749.2544573074</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>141774.0480573074</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ICX ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>45904.44905730742</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -964,7 +964,7 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>21353.53915730742</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>22412.88845730742</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>44331.96395730742</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>60331.96395730742</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>49906.23925730742</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>59922.63345730743</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>59932.63345730743</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>56601.09265730742</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>61840.31685730742</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>59560.48415730742</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>59886.23615730742</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>60355.53465730742</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>58355.53465730742</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1349.726157307423</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1339.726157307423</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6719.630957307423</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>24778.39885730742</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>24778.39885730742</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>59593.85225730742</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>105429.8496573074</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>110434.8496573074</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>171484.0073090085</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>170147.2239573074</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>183172.9109573074</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>166823.5235573074</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>167567.8785573074</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>161913.5280573074</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>161913.5280573074</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>140749.2544573074</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>141774.0480573074</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
